--- a/output/evaluation.xlsx
+++ b/output/evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3EF4CE29-7B47-4F0A-894C-9F202B30C61A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55F8BF26-3F0E-4B2B-B50E-09C5A6982C47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -434,23 +434,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -458,7 +458,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -467,7 +467,7 @@
       <c r="C4" s="1">
         <v>1.1810290000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>0.96050080000000004</v>
       </c>
       <c r="E4" s="1">
@@ -475,14 +475,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1.1540010000000001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.13852</v>
       </c>
       <c r="E5" s="1">
@@ -490,8 +490,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -510,31 +510,31 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,14 +566,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>0.64610000000000001</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.64529999999999998</v>
       </c>
       <c r="E13" s="1">

--- a/output/evaluation.xlsx
+++ b/output/evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{55F8BF26-3F0E-4B2B-B50E-09C5A6982C47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B3295BF1-E296-47CE-81C9-9C7FA39214A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,31 +70,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,15 +128,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,49 +420,49 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="9.4140625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -467,31 +471,31 @@
       <c r="C4" s="1">
         <v>1.1810290000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>0.96050080000000004</v>
       </c>
       <c r="E4" s="1">
         <v>1.443416</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1.1540010000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1.13852</v>
       </c>
       <c r="E5" s="1">
         <v>1.156417</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -504,40 +508,40 @@
         <v>1.0970660000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -550,30 +554,30 @@
         <v>0.66830000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>0.66390000000000005</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>0.66990000000000005</v>
       </c>
       <c r="E12" s="1">
         <v>0.66190000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>0.64610000000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>0.64529999999999998</v>
       </c>
       <c r="E13" s="1">

--- a/output/evaluation.xlsx
+++ b/output/evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B3295BF1-E296-47CE-81C9-9C7FA39214A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F9F014FF-951F-4F9C-9084-9087A862F22B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Pearson Correlation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,15 @@
   <si>
     <t>2. ROC(AUC)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Rank Score</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
 </sst>
 </file>
@@ -120,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,6 +144,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -438,19 +450,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +474,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -479,7 +491,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,7 +506,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -514,19 +526,19 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -534,11 +546,11 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -555,7 +567,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +582,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -584,8 +596,71 @@
         <v>0.64610000000000001</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C2:E2"/>

--- a/output/evaluation.xlsx
+++ b/output/evaluation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F9F014FF-951F-4F9C-9084-9087A862F22B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{646954DE-A23E-4ED4-A15B-59690BDDB72D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,16 +432,16 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -632,18 +632,30 @@
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
@@ -656,17 +668,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/evaluation.xlsx
+++ b/output/evaluation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{646954DE-A23E-4ED4-A15B-59690BDDB72D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E7B9EAE9-2041-43A6-8281-630398EE33C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22270" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>1.Rank Score</t>
   </si>
   <si>
-    <t>Cluster</t>
-  </si>
-  <si>
     <t>Combined</t>
+  </si>
+  <si>
+    <t>Cluster (C = 24)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,17 +434,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -546,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -658,27 +661,29 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>39.331719999999997</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/evaluation.xlsx
+++ b/output/evaluation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E7B9EAE9-2041-43A6-8281-630398EE33C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FAC8757E-91B0-47CE-9CA9-36B90842DCDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22270" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>7.6E-3</v>
+        <v>7.5735099999999997</v>
       </c>
       <c r="D18" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>7.94754</v>
       </c>
       <c r="E18" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>7.9686500000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -651,13 +651,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>7.6E-3</v>
+        <v>7.5544200000000004</v>
       </c>
       <c r="D19" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>7.9524600000000003</v>
       </c>
       <c r="E19" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>7.9818199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -673,17 +673,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
